--- a/RAB Acara/RAB SIE EXPO.xlsx
+++ b/RAB Acara/RAB SIE EXPO.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>UNIVERSITAS PENDIDIKAN GANESHA</t>
   </si>
@@ -117,31 +117,19 @@
     <t>Kuota Internet</t>
   </si>
   <si>
-    <t>Biaya Honor Pemateri Prof Onno W Purbo</t>
+    <t>Honor Narasumber Sharing Session</t>
   </si>
   <si>
-    <t>Biaya Honor Pemateri Anak Agung Duwi Arsana</t>
-  </si>
-  <si>
-    <t>Rp. 300.000</t>
-  </si>
-  <si>
-    <t>Rp. 25.000</t>
-  </si>
-  <si>
-    <t>Rp. 1.500.000</t>
-  </si>
-  <si>
-    <t>Rp. 50.000</t>
-  </si>
-  <si>
-    <t>Rp. 1.850.000</t>
+    <t>Honor Narasumber Webinar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="_-[$Rp-421]* #,##0.00_-;\-[$Rp-421]* #,##0.00_-;_-[$Rp-421]* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -237,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -246,6 +234,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -255,19 +255,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -304,7 +295,7 @@
         <xdr:cNvPr id="5" name="image2.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{91BB5439-6F45-4410-802F-14A63ED2AA6A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91BB5439-6F45-4410-802F-14A63ED2AA6A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -365,7 +356,7 @@
         <xdr:cNvPr id="6" name="image1.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{24D64729-5B1B-4FCA-A0D1-21937410D4B6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24D64729-5B1B-4FCA-A0D1-21937410D4B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -426,7 +417,7 @@
         <xdr:cNvPr id="7" name="Straight Connector 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{569FBDCD-5A8A-4B9F-A986-BB896ACA2048}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{569FBDCD-5A8A-4B9F-A986-BB896ACA2048}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -508,7 +499,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -560,7 +551,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -754,7 +745,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -765,7 +756,7 @@
   <dimension ref="A2:N129"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="A18" sqref="A18:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,169 +766,169 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
     </row>
     <row r="9" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
@@ -1002,106 +993,110 @@
       <c r="N14" s="7"/>
     </row>
     <row r="15" spans="1:14" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+      <c r="A15" s="4">
         <v>1</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10">
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4">
+        <v>2</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="12">
+        <v>1500000</v>
+      </c>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12">
+        <f>PRODUCT(G15,K15)</f>
+        <v>3000000</v>
+      </c>
+      <c r="N15" s="12"/>
+    </row>
+    <row r="16" spans="1:14" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4">
         <v>1</v>
       </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10" t="s">
+      <c r="H16" s="4"/>
+      <c r="I16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="N15" s="10"/>
-    </row>
-    <row r="16" spans="1:14" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10">
-        <v>1</v>
-      </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10" t="s">
+      <c r="J16" s="4"/>
+      <c r="K16" s="12">
+        <v>1500000</v>
+      </c>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12">
+        <f t="shared" ref="M16:M17" si="0">PRODUCT(G16,K16)</f>
+        <v>1500000</v>
+      </c>
+      <c r="N16" s="12"/>
+    </row>
+    <row r="17" spans="1:14" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="4">
+        <v>8</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N16" s="10"/>
-    </row>
-    <row r="17" spans="1:14" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="10">
-        <v>2</v>
-      </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="N17" s="10"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="12">
+        <v>25000</v>
+      </c>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12">
+        <f t="shared" si="0"/>
+        <v>200000</v>
+      </c>
+      <c r="N17" s="12"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="N18" s="10"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="12">
+        <f>SUM(M15:N17)</f>
+        <v>4700000</v>
+      </c>
+      <c r="N18" s="12"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
@@ -2881,11 +2876,20 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M13:N14"/>
+    <mergeCell ref="A8:N8"/>
+    <mergeCell ref="A10:N10"/>
+    <mergeCell ref="A11:N11"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="D13:F14"/>
+    <mergeCell ref="G13:H14"/>
+    <mergeCell ref="A7:N7"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="A4:N4"/>
+    <mergeCell ref="A5:N5"/>
+    <mergeCell ref="A6:N6"/>
     <mergeCell ref="A18:L18"/>
     <mergeCell ref="M18:N18"/>
     <mergeCell ref="I13:J14"/>
@@ -2902,20 +2906,11 @@
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="B15:C17"/>
-    <mergeCell ref="A7:N7"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="A4:N4"/>
-    <mergeCell ref="A5:N5"/>
-    <mergeCell ref="A6:N6"/>
-    <mergeCell ref="M13:N14"/>
-    <mergeCell ref="A8:N8"/>
-    <mergeCell ref="A10:N10"/>
-    <mergeCell ref="A11:N11"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="D13:F14"/>
-    <mergeCell ref="G13:H14"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
